--- a/tmp/Tuple2.xlsx
+++ b/tmp/Tuple2.xlsx
@@ -378,7 +378,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +389,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1308</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4">
@@ -400,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1108</v>
+        <v>912</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1504</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="6">
@@ -422,7 +422,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>940</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>944</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8">
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>612</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>752</v>
+        <v>896</v>
       </c>
     </row>
     <row r="10">
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1008</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="11">
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1648</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="12">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2248</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="13">
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2020</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="14">
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1324</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="15">
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>940</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16">
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1352</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="17">
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>996</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="18">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>620</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="19">
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>924</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="20">
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1500</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1004</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2632</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="23">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>444</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>660</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25">
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2432</v>
+        <v>664</v>
       </c>
     </row>
     <row r="26">
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1904</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1716</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>924</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1684</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="31">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1316</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="33">
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1444</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="34">
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>936</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="35">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1628</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1476</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="37">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1008</v>
+        <v>724</v>
       </c>
     </row>
     <row r="38">
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1080</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="39">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
     </row>
     <row r="40">
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1608</v>
+        <v>756</v>
       </c>
     </row>
     <row r="41">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>852</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="42">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>876</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="43">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>684</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="44">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>656</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="45">
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>680</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="46">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1748</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="47">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>832</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="48">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>2372</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="49">
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
     </row>
     <row r="50">
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>564</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51">
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>780</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="52">
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1312</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53">
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1044</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="54">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1444</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="55">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1392</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="56">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1072</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="57">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1224</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="58">
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>704</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="59">
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1684</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="60">
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>696</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="61">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1076</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="62">
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>708</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="63">
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>420</v>
+        <v>600</v>
       </c>
     </row>
     <row r="64">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1284</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="65">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1152</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="66">
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1340</v>
+        <v>896</v>
       </c>
     </row>
     <row r="67">
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>2588</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="68">
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1588</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="69">
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>2104</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70">
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1444</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="71">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1704</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="72">
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1316</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="73">
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>896</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="74">
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>648</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="75">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1088</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1780</v>
+        <v>580</v>
       </c>
     </row>
     <row r="77">
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>992</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="78">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>296</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="79">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>916</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="80">
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>2568</v>
+        <v>764</v>
       </c>
     </row>
     <row r="81">
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>804</v>
+        <v>748</v>
       </c>
     </row>
     <row r="82">
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>856</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="83">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>828</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="84">
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1252</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="85">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>936</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="86">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1548</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="87">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1756</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="88">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>732</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="89">
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1904</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="90">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1268</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="91">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1156</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="92">
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1092</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="93">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1496</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="94">
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>2428</v>
+        <v>660</v>
       </c>
     </row>
     <row r="95">
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1364</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="96">
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>2592</v>
+        <v>900</v>
       </c>
     </row>
     <row r="97">
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1064</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="98">
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>864</v>
+        <v>704</v>
       </c>
     </row>
     <row r="99">
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>636</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="100">
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>880</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101">
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>2120</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="102">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>968</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="103">
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1688</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="104">
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>888</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="105">
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>700</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="106">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>696</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="107">
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>712</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="108">
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>688</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="109">
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1256</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="110">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>632</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111">
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1016</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="112">
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>912</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="113">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1040</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="114">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1188</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="115">
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1668</v>
+        <v>688</v>
       </c>
     </row>
     <row r="116">
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1252</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="117">
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1572</v>
+        <v>996</v>
       </c>
     </row>
     <row r="118">
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>2328</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="119">
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>328</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="120">
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>744</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="121">
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>612</v>
+        <v>724</v>
       </c>
     </row>
     <row r="122">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1448</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="123">
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1124</v>
+        <v>732</v>
       </c>
     </row>
     <row r="124">
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>348</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="125">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>436</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="126">
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>748</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="127">
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1172</v>
+        <v>596</v>
       </c>
     </row>
     <row r="128">
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1132</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="129">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>968</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="130">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>2340</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="131">
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>748</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="132">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1280</v>
+        <v>736</v>
       </c>
     </row>
     <row r="133">
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1352</v>
+        <v>608</v>
       </c>
     </row>
     <row r="134">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>952</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="135">
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1516</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="136">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1112</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="137">
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>2560</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="138">
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>744</v>
+        <v>672</v>
       </c>
     </row>
     <row r="139">
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>1448</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="140">
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>784</v>
+        <v>728</v>
       </c>
     </row>
     <row r="141">
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>1588</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="142">
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1044</v>
+        <v>840</v>
       </c>
     </row>
     <row r="143">
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1360</v>
+        <v>628</v>
       </c>
     </row>
     <row r="144">
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>2896</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145">
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>300</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="146">
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>652</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="147">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>944</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="148">
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>2032</v>
+        <v>592</v>
       </c>
     </row>
     <row r="149">
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>1624</v>
+        <v>684</v>
       </c>
     </row>
     <row r="150">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>788</v>
+        <v>716</v>
       </c>
     </row>
     <row r="151">
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>940</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="152">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>640</v>
+        <v>468</v>
       </c>
     </row>
     <row r="153">
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>820</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="154">
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>516</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="155">
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>768</v>
+        <v>892</v>
       </c>
     </row>
     <row r="156">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>644</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="157">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1468</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="158">
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>1264</v>
+        <v>836</v>
       </c>
     </row>
     <row r="159">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>1664</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="160">
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>504</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="161">
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>612</v>
+        <v>844</v>
       </c>
     </row>
     <row r="162">
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1484</v>
+        <v>664</v>
       </c>
     </row>
     <row r="163">
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1008</v>
+        <v>580</v>
       </c>
     </row>
     <row r="164">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1160</v>
+        <v>924</v>
       </c>
     </row>
     <row r="165">
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>428</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="166">
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>2564</v>
+        <v>704</v>
       </c>
     </row>
     <row r="167">
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1440</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="168">
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>740</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="169">
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>420</v>
+        <v>224</v>
       </c>
     </row>
     <row r="170">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>496</v>
+        <v>452</v>
       </c>
     </row>
     <row r="171">
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>908</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="172">
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1764</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="173">
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1184</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="174">
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1468</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="175">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1716</v>
+        <v>884</v>
       </c>
     </row>
     <row r="176">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1164</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="177">
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>984</v>
+        <v>564</v>
       </c>
     </row>
     <row r="178">
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>2436</v>
+        <v>660</v>
       </c>
     </row>
     <row r="179">
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1188</v>
+        <v>580</v>
       </c>
     </row>
     <row r="180">
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1208</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="181">
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1408</v>
+        <v>892</v>
       </c>
     </row>
     <row r="182">
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>676</v>
+        <v>704</v>
       </c>
     </row>
     <row r="183">
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>880</v>
+        <v>436</v>
       </c>
     </row>
     <row r="184">
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1228</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="185">
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>2896</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="186">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>852</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="187">
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>1384</v>
+        <v>472</v>
       </c>
     </row>
     <row r="188">
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>716</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="189">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>952</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="190">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1672</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="191">
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1240</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="192">
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>1828</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="193">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1472</v>
+        <v>704</v>
       </c>
     </row>
     <row r="194">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1384</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="195">
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>2736</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="196">
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>932</v>
+        <v>460</v>
       </c>
     </row>
     <row r="197">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>1672</v>
+        <v>776</v>
       </c>
     </row>
     <row r="198">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>592</v>
+        <v>896</v>
       </c>
     </row>
     <row r="199">
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>1172</v>
+        <v>656</v>
       </c>
     </row>
     <row r="200">
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1760</v>
+        <v>900</v>
       </c>
     </row>
     <row r="201">
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>1792</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="202">
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>924</v>
+        <v>680</v>
       </c>
     </row>
     <row r="203">
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>1544</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="204">
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>688</v>
+        <v>836</v>
       </c>
     </row>
     <row r="205">
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1036</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="206">
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>5444</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="207">
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>1672</v>
+        <v>608</v>
       </c>
     </row>
     <row r="208">
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>928</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="209">
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>1420</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="210">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>1356</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="211">
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>764</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="212">
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>1380</v>
+        <v>904</v>
       </c>
     </row>
     <row r="213">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>2640</v>
+        <v>756</v>
       </c>
     </row>
     <row r="214">
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>1212</v>
+        <v>968</v>
       </c>
     </row>
     <row r="215">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>624</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="216">
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>760</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="217">
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>732</v>
+        <v>876</v>
       </c>
     </row>
     <row r="218">
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>1376</v>
+        <v>856</v>
       </c>
     </row>
     <row r="219">
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>660</v>
+        <v>372</v>
       </c>
     </row>
     <row r="220">
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>1168</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="221">
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1604</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="222">
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>1084</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="223">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>616</v>
+        <v>896</v>
       </c>
     </row>
     <row r="224">
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>1392</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="225">
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>856</v>
+        <v>472</v>
       </c>
     </row>
     <row r="226">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>948</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="227">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1144</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="228">
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>1356</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="229">
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>552</v>
+        <v>528</v>
       </c>
     </row>
     <row r="230">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>1120</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="231">
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>712</v>
+        <v>964</v>
       </c>
     </row>
     <row r="232">
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>2472</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="233">
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>1476</v>
+        <v>656</v>
       </c>
     </row>
     <row r="234">
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>1488</v>
+        <v>328</v>
       </c>
     </row>
     <row r="235">
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>596</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="236">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>2336</v>
+        <v>960</v>
       </c>
     </row>
     <row r="237">
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>712</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="238">
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>824</v>
+        <v>704</v>
       </c>
     </row>
     <row r="239">
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>1220</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="240">
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>1308</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="241">
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>1260</v>
+        <v>836</v>
       </c>
     </row>
     <row r="242">
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>972</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="243">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>696</v>
+        <v>968</v>
       </c>
     </row>
     <row r="244">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>1088</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="245">
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>1504</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="246">
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>924</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="247">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>1132</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="248">
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>2148</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="249">
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>732</v>
+        <v>760</v>
       </c>
     </row>
     <row r="250">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1884</v>
+        <v>616</v>
       </c>
     </row>
     <row r="251">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>704</v>
+        <v>940</v>
       </c>
     </row>
     <row r="252">
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>744</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="253">
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>552</v>
+        <v>708</v>
       </c>
     </row>
     <row r="254">
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>872</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="255">
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>724</v>
+        <v>888</v>
       </c>
     </row>
     <row r="256">
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1544</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="257">
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>1640</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="258">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>1628</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="259">
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1676</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="260">
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>1548</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="261">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>1816</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="262">
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>1768</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="263">
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>960</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="264">
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>2556</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="265">
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>1184</v>
+        <v>716</v>
       </c>
     </row>
     <row r="266">
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>756</v>
+        <v>976</v>
       </c>
     </row>
     <row r="267">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1680</v>
+        <v>680</v>
       </c>
     </row>
     <row r="268">
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>556</v>
+        <v>700</v>
       </c>
     </row>
     <row r="269">
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>432</v>
+        <v>728</v>
       </c>
     </row>
     <row r="270">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>896</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="271">
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>276</v>
+        <v>676</v>
       </c>
     </row>
     <row r="272">
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1112</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="273">
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>972</v>
+        <v>480</v>
       </c>
     </row>
     <row r="274">
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>1868</v>
+        <v>384</v>
       </c>
     </row>
     <row r="275">
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1724</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="276">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>972</v>
+        <v>604</v>
       </c>
     </row>
     <row r="277">
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>1364</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="278">
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>1004</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="279">
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1052</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="280">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1120</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="281">
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1328</v>
+        <v>916</v>
       </c>
     </row>
     <row r="282">
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>1596</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="283">
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>1500</v>
+        <v>848</v>
       </c>
     </row>
     <row r="284">
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>1368</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="285">
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>1896</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="286">
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>840</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="287">
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>996</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="288">
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1852</v>
+        <v>668</v>
       </c>
     </row>
     <row r="289">
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>956</v>
+        <v>752</v>
       </c>
     </row>
     <row r="290">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>1284</v>
+        <v>788</v>
       </c>
     </row>
     <row r="291">
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>2460</v>
+        <v>740</v>
       </c>
     </row>
     <row r="292">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>636</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="293">
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>808</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="294">
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1752</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="295">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>1824</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="296">
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>1900</v>
+        <v>648</v>
       </c>
     </row>
     <row r="297">
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>984</v>
+        <v>740</v>
       </c>
     </row>
     <row r="298">
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>1392</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="299">
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>2660</v>
+        <v>992</v>
       </c>
     </row>
     <row r="300">
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1072</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="301">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>1024</v>
+        <v>904</v>
       </c>
     </row>
     <row r="302">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1228</v>
+        <v>956</v>
       </c>
     </row>
     <row r="303">
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>828</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="304">
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="305">
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>1384</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="306">
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1404</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="307">
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>1488</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="308">
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>544</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="309">
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>1764</v>
+        <v>696</v>
       </c>
     </row>
     <row r="310">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>1660</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="311">
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>860</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="312">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>1152</v>
+        <v>580</v>
       </c>
     </row>
     <row r="313">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>892</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="314">
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>1148</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="315">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>688</v>
+        <v>824</v>
       </c>
     </row>
     <row r="316">
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>564</v>
+        <v>892</v>
       </c>
     </row>
     <row r="317">
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>1380</v>
+        <v>756</v>
       </c>
     </row>
     <row r="318">
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1356</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="319">
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1280</v>
+        <v>592</v>
       </c>
     </row>
     <row r="320">
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1204</v>
+        <v>436</v>
       </c>
     </row>
     <row r="321">
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>904</v>
+        <v>972</v>
       </c>
     </row>
     <row r="322">
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>1296</v>
+        <v>876</v>
       </c>
     </row>
     <row r="323">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1116</v>
+        <v>928</v>
       </c>
     </row>
     <row r="324">
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>596</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="325">
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>732</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="326">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>620</v>
+        <v>672</v>
       </c>
     </row>
     <row r="327">
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>1096</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="328">
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>1452</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="329">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>1380</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="330">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1716</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="331">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>1404</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="332">
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>1144</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="333">
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>2376</v>
+        <v>948</v>
       </c>
     </row>
     <row r="334">
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>1800</v>
+        <v>628</v>
       </c>
     </row>
     <row r="335">
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>940</v>
+        <v>796</v>
       </c>
     </row>
     <row r="336">
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>1744</v>
+        <v>964</v>
       </c>
     </row>
     <row r="337">
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>764</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="338">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>484</v>
+        <v>756</v>
       </c>
     </row>
     <row r="339">
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>1316</v>
+        <v>704</v>
       </c>
     </row>
     <row r="340">
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1472</v>
+        <v>648</v>
       </c>
     </row>
     <row r="341">
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1496</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="342">
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>1764</v>
+        <v>852</v>
       </c>
     </row>
     <row r="343">
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>860</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="344">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>856</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="345">
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>880</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="346">
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>840</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="347">
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>924</v>
+        <v>968</v>
       </c>
     </row>
     <row r="348">
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1284</v>
+        <v>856</v>
       </c>
     </row>
     <row r="349">
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>1460</v>
+        <v>824</v>
       </c>
     </row>
     <row r="350">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>504</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="351">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>828</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="352">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>1488</v>
+        <v>872</v>
       </c>
     </row>
     <row r="353">
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1276</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="354">
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1320</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="355">
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>1332</v>
+        <v>904</v>
       </c>
     </row>
     <row r="356">
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>1728</v>
+        <v>716</v>
       </c>
     </row>
     <row r="357">
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>964</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="358">
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>1168</v>
+        <v>784</v>
       </c>
     </row>
     <row r="359">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>1884</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="360">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>716</v>
+        <v>696</v>
       </c>
     </row>
     <row r="361">
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1448</v>
+        <v>864</v>
       </c>
     </row>
     <row r="362">
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>804</v>
+        <v>876</v>
       </c>
     </row>
     <row r="363">
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>1068</v>
+        <v>700</v>
       </c>
     </row>
     <row r="364">
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>980</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="365">
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>712</v>
+        <v>572</v>
       </c>
     </row>
     <row r="366">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>732</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="367">
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>1152</v>
+        <v>788</v>
       </c>
     </row>
     <row r="368">
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>1808</v>
+        <v>700</v>
       </c>
     </row>
     <row r="369">
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>696</v>
+        <v>636</v>
       </c>
     </row>
     <row r="370">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>1148</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="371">
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>1648</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="372">
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>1020</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="373">
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1564</v>
+        <v>684</v>
       </c>
     </row>
     <row r="374">
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>1344</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="375">
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>764</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="376">
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>1580</v>
+        <v>784</v>
       </c>
     </row>
     <row r="377">
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>1012</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="378">
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1596</v>
+        <v>712</v>
       </c>
     </row>
     <row r="379">
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>716</v>
+        <v>652</v>
       </c>
     </row>
     <row r="380">
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>1496</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="381">
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1508</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="382">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>1380</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="383">
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1052</v>
+        <v>932</v>
       </c>
     </row>
     <row r="384">
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>828</v>
+        <v>748</v>
       </c>
     </row>
     <row r="385">
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
     </row>
     <row r="386">
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>876</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="387">
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>652</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="388">
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1416</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="389">
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>548</v>
+        <v>884</v>
       </c>
     </row>
     <row r="390">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>1800</v>
+        <v>588</v>
       </c>
     </row>
     <row r="391">
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1184</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="392">
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>812</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="393">
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>1844</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="394">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>1464</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="395">
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>392</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="396">
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>992</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="397">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>1464</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="398">
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>1356</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="399">
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1328</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="400">
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1092</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="401">
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>784</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="402">
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>1020</v>
+        <v>880</v>
       </c>
     </row>
     <row r="403">
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>636</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="404">
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1476</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="405">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>684</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="406">
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1316</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="407">
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>740</v>
+        <v>896</v>
       </c>
     </row>
     <row r="408">
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>636</v>
+        <v>700</v>
       </c>
     </row>
     <row r="409">
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>440</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="410">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>844</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="411">
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>684</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="412">
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>1692</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="413">
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>1576</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="414">
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>784</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="415">
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1632</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="416">
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>1312</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="417">
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>1108</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="418">
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>1228</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="419">
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>988</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="420">
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>1576</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="421">
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>848</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="422">
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>956</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="423">
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>612</v>
+        <v>696</v>
       </c>
     </row>
     <row r="424">
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1120</v>
+        <v>688</v>
       </c>
     </row>
     <row r="425">
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>700</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="426">
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1696</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="427">
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>1612</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="428">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>752</v>
+        <v>928</v>
       </c>
     </row>
     <row r="429">
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>876</v>
+        <v>868</v>
       </c>
     </row>
     <row r="430">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1660</v>
+        <v>780</v>
       </c>
     </row>
     <row r="431">
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>996</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="432">
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>888</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="433">
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>980</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="434">
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>568</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="435">
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>944</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="436">
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>1352</v>
+        <v>980</v>
       </c>
     </row>
     <row r="437">
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>1280</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="438">
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>1020</v>
+        <v>708</v>
       </c>
     </row>
     <row r="439">
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>716</v>
+        <v>840</v>
       </c>
     </row>
     <row r="440">
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>968</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="441">
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>1336</v>
+        <v>972</v>
       </c>
     </row>
     <row r="442">
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>1316</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="443">
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>584</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="444">
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1660</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="445">
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>940</v>
+        <v>544</v>
       </c>
     </row>
     <row r="446">
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>720</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="447">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>780</v>
+        <v>692</v>
       </c>
     </row>
     <row r="448">
@@ -5284,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1284</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="449">
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>948</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="450">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>1380</v>
+        <v>824</v>
       </c>
     </row>
     <row r="451">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1004</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="452">
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>616</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="453">
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>880</v>
+        <v>932</v>
       </c>
     </row>
     <row r="454">
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>2868</v>
+        <v>628</v>
       </c>
     </row>
     <row r="455">
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1164</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="456">
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="C456" t="n">
-        <v>1204</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="457">
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="458">
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>1332</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="459">
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>308</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="460">
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1156</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="461">
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>1268</v>
+        <v>624</v>
       </c>
     </row>
     <row r="462">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>1324</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="463">
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>1748</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="464">
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>496</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="465">
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>908</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="466">
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>2616</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="467">
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1212</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="468">
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>1356</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="469">
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>1676</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="470">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>924</v>
+        <v>740</v>
       </c>
     </row>
     <row r="471">
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1136</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="472">
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>1360</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="473">
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>1444</v>
+        <v>848</v>
       </c>
     </row>
     <row r="474">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>1024</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="475">
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>856</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="476">
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>764</v>
+        <v>676</v>
       </c>
     </row>
     <row r="477">
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>1652</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="478">
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>548</v>
+        <v>968</v>
       </c>
     </row>
     <row r="479">
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>1340</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="480">
@@ -5636,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>1544</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="481">
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>840</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="482">
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>2988</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="483">
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1204</v>
+        <v>808</v>
       </c>
     </row>
     <row r="484">
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="C484" t="n">
-        <v>1500</v>
+        <v>972</v>
       </c>
     </row>
     <row r="485">
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="C485" t="n">
-        <v>576</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="486">
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>1484</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="487">
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>1128</v>
+        <v>704</v>
       </c>
     </row>
     <row r="488">
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>840</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="489">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>1192</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="490">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>1484</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="491">
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>1116</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="492">
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>900</v>
+        <v>608</v>
       </c>
     </row>
     <row r="493">
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>1304</v>
+        <v>344</v>
       </c>
     </row>
     <row r="494">
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>1336</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="495">
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>672</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="496">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1624</v>
+        <v>996</v>
       </c>
     </row>
     <row r="497">
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>1784</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="498">
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="C498" t="n">
-        <v>552</v>
+        <v>812</v>
       </c>
     </row>
     <row r="499">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>2612</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="500">
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="C500" t="n">
-        <v>1292</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="501">
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>736</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="502">
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>1436</v>
+        <v>892</v>
       </c>
     </row>
     <row r="503">
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="C503" t="n">
-        <v>1408</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="504">
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>1100</v>
+        <v>852</v>
       </c>
     </row>
     <row r="505">
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>456</v>
+        <v>904</v>
       </c>
     </row>
     <row r="506">
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="C506" t="n">
-        <v>1028</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="507">
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>1404</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="508">
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="C508" t="n">
-        <v>896</v>
+        <v>688</v>
       </c>
     </row>
     <row r="509">
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="C509" t="n">
-        <v>984</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="510">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>408</v>
+        <v>988</v>
       </c>
     </row>
     <row r="511">
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>2412</v>
+        <v>780</v>
       </c>
     </row>
     <row r="512">
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>2340</v>
+        <v>744</v>
       </c>
     </row>
     <row r="513">
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>1384</v>
+        <v>920</v>
       </c>
     </row>
     <row r="514">
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>428</v>
+        <v>932</v>
       </c>
     </row>
     <row r="515">
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>632</v>
+        <v>400</v>
       </c>
     </row>
     <row r="516">
@@ -6032,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="C516" t="n">
-        <v>404</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="517">
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>1464</v>
+        <v>552</v>
       </c>
     </row>
     <row r="518">
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>1424</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="519">
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>1716</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="520">
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>940</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="521">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>1424</v>
+        <v>704</v>
       </c>
     </row>
     <row r="522">
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>900</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="523">
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>1596</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="524">
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="C524" t="n">
-        <v>544</v>
+        <v>648</v>
       </c>
     </row>
     <row r="525">
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="C525" t="n">
-        <v>804</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="526">
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="C526" t="n">
-        <v>1568</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="527">
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="C527" t="n">
-        <v>1564</v>
+        <v>960</v>
       </c>
     </row>
     <row r="528">
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1820</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="529">
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>1452</v>
+        <v>956</v>
       </c>
     </row>
     <row r="530">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>284</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="531">
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="C531" t="n">
-        <v>716</v>
+        <v>844</v>
       </c>
     </row>
     <row r="532">
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="C532" t="n">
-        <v>1476</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="533">
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>780</v>
+        <v>656</v>
       </c>
     </row>
     <row r="534">
@@ -6230,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>804</v>
+        <v>700</v>
       </c>
     </row>
     <row r="535">
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>1512</v>
+        <v>924</v>
       </c>
     </row>
     <row r="536">
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>644</v>
+        <v>696</v>
       </c>
     </row>
     <row r="537">
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="C537" t="n">
-        <v>768</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="538">
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>1132</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="539">
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="C539" t="n">
-        <v>1000</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="540">
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>736</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="541">
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="C541" t="n">
-        <v>732</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="542">
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="C542" t="n">
-        <v>700</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="543">
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="C543" t="n">
-        <v>1440</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="544">
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1728</v>
+        <v>832</v>
       </c>
     </row>
     <row r="545">
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>568</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="546">
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>1644</v>
+        <v>464</v>
       </c>
     </row>
     <row r="547">
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>1172</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="548">
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>2920</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="549">
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="550">
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="C550" t="n">
-        <v>1680</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="551">
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>2228</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="552">
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>1356</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="553">
@@ -6439,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>2188</v>
+        <v>868</v>
       </c>
     </row>
     <row r="554">
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="C554" t="n">
-        <v>2172</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="555">
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="C555" t="n">
-        <v>1452</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="556">
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="C556" t="n">
-        <v>2548</v>
+        <v>776</v>
       </c>
     </row>
     <row r="557">
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="C557" t="n">
-        <v>1452</v>
+        <v>804</v>
       </c>
     </row>
     <row r="558">
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="C558" t="n">
-        <v>368</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="559">
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>740</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="560">
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>1164</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="561">
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>1208</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="562">
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>1096</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="563">
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>1352</v>
+        <v>692</v>
       </c>
     </row>
     <row r="564">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="C564" t="n">
-        <v>812</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="565">
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>2408</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="566">
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>2172</v>
+        <v>524</v>
       </c>
     </row>
     <row r="567">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>1236</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="568">
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="C568" t="n">
-        <v>1388</v>
+        <v>536</v>
       </c>
     </row>
     <row r="569">
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>504</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="570">
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>1456</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="571">
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>1420</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="572">
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="C572" t="n">
-        <v>892</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="573">
@@ -6659,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="C573" t="n">
-        <v>352</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="574">
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="C574" t="n">
-        <v>1332</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="575">
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="576">
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>300</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="577">
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>1424</v>
+        <v>960</v>
       </c>
     </row>
     <row r="578">
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="C578" t="n">
-        <v>1528</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="579">
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="C579" t="n">
-        <v>1188</v>
+        <v>396</v>
       </c>
     </row>
     <row r="580">
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>716</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="581">
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>904</v>
+        <v>588</v>
       </c>
     </row>
     <row r="582">
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>1568</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="583">
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>1148</v>
+        <v>864</v>
       </c>
     </row>
     <row r="584">
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="C584" t="n">
-        <v>692</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="585">
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>924</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="586">
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>2116</v>
+        <v>556</v>
       </c>
     </row>
     <row r="587">
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>1228</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="588">
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>1932</v>
+        <v>592</v>
       </c>
     </row>
     <row r="589">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>1356</v>
+        <v>844</v>
       </c>
     </row>
     <row r="590">
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="C590" t="n">
-        <v>704</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="591">
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="C591" t="n">
-        <v>736</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="592">
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="C592" t="n">
-        <v>1156</v>
+        <v>884</v>
       </c>
     </row>
     <row r="593">
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="C593" t="n">
-        <v>1316</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="594">
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="C594" t="n">
-        <v>716</v>
+        <v>984</v>
       </c>
     </row>
     <row r="595">
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>1656</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="596">
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="C596" t="n">
-        <v>1200</v>
+        <v>740</v>
       </c>
     </row>
     <row r="597">
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>1624</v>
+        <v>760</v>
       </c>
     </row>
     <row r="598">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="C598" t="n">
-        <v>1380</v>
+        <v>960</v>
       </c>
     </row>
     <row r="599">
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="C599" t="n">
-        <v>704</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="600">
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>1120</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="601">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>1224</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="602">
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>476</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="603">
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>1468</v>
+        <v>544</v>
       </c>
     </row>
     <row r="604">
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>720</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="605">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="C605" t="n">
-        <v>884</v>
+        <v>648</v>
       </c>
     </row>
     <row r="606">
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>704</v>
+        <v>564</v>
       </c>
     </row>
     <row r="607">
@@ -7033,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>1516</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="608">
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="C608" t="n">
-        <v>752</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="609">
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="C609" t="n">
-        <v>440</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="610">
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>856</v>
+        <v>596</v>
       </c>
     </row>
     <row r="611">
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>904</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="612">
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>748</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="613">
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="C613" t="n">
-        <v>2196</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="614">
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>1760</v>
+        <v>992</v>
       </c>
     </row>
     <row r="615">
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="C615" t="n">
-        <v>1316</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="616">
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="C616" t="n">
-        <v>1632</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="617">
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="C617" t="n">
-        <v>664</v>
+        <v>932</v>
       </c>
     </row>
     <row r="618">
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="C618" t="n">
-        <v>1212</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="619">
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="C619" t="n">
-        <v>1180</v>
+        <v>536</v>
       </c>
     </row>
     <row r="620">
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="C620" t="n">
-        <v>1328</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="621">
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>1604</v>
+        <v>912</v>
       </c>
     </row>
     <row r="622">
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>2248</v>
+        <v>628</v>
       </c>
     </row>
     <row r="623">
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="C623" t="n">
-        <v>984</v>
+        <v>672</v>
       </c>
     </row>
     <row r="624">
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="C624" t="n">
-        <v>1704</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="625">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>708</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="626">
@@ -7242,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="C626" t="n">
-        <v>2692</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="627">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>636</v>
+        <v>648</v>
       </c>
     </row>
     <row r="628">
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="C628" t="n">
-        <v>1700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="629">
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="C629" t="n">
-        <v>1072</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="630">
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="C630" t="n">
-        <v>612</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="631">
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="C631" t="n">
-        <v>1564</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="632">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="C632" t="n">
-        <v>1720</v>
+        <v>808</v>
       </c>
     </row>
     <row r="633">
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>1600</v>
+        <v>956</v>
       </c>
     </row>
     <row r="634">
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>932</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="635">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="C635" t="n">
-        <v>444</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="636">
@@ -7352,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>1348</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="637">
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>1480</v>
+        <v>816</v>
       </c>
     </row>
     <row r="638">
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>2120</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="639">
@@ -7385,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="C639" t="n">
-        <v>1220</v>
+        <v>828</v>
       </c>
     </row>
     <row r="640">
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>1036</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="641">
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="C641" t="n">
-        <v>708</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="642">
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>1152</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="643">
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>796</v>
+        <v>588</v>
       </c>
     </row>
     <row r="644">
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="C644" t="n">
-        <v>892</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="645">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="C645" t="n">
-        <v>1596</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="646">
@@ -7462,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>1688</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="647">
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="C647" t="n">
-        <v>2576</v>
+        <v>700</v>
       </c>
     </row>
     <row r="648">
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="C648" t="n">
-        <v>724</v>
+        <v>492</v>
       </c>
     </row>
     <row r="649">
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>1372</v>
+        <v>664</v>
       </c>
     </row>
     <row r="650">
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>1768</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="651">
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="C651" t="n">
-        <v>2196</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="652">
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="C652" t="n">
-        <v>584</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="653">
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="C653" t="n">
-        <v>980</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="654">
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="C654" t="n">
-        <v>1848</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="655">
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="C655" t="n">
-        <v>1212</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="656">
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="C656" t="n">
-        <v>1076</v>
+        <v>812</v>
       </c>
     </row>
     <row r="657">
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="C657" t="n">
-        <v>1328</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="658">
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="C658" t="n">
-        <v>1724</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="659">
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="C659" t="n">
-        <v>1204</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="660">
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="C660" t="n">
-        <v>772</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="661">
@@ -7627,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>2976</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="662">
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="C662" t="n">
-        <v>1108</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="663">
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="C663" t="n">
-        <v>1136</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="664">
@@ -7660,7 +7660,7 @@
         <v>0</v>
       </c>
       <c r="C664" t="n">
-        <v>856</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="665">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>804</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="666">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="C666" t="n">
-        <v>1936</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="667">
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="C667" t="n">
-        <v>2064</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="668">
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="C668" t="n">
-        <v>1036</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="669">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>1964</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="670">
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="C670" t="n">
-        <v>828</v>
+        <v>952</v>
       </c>
     </row>
     <row r="671">
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>624</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="672">
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="C672" t="n">
-        <v>3092</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="673">
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="C673" t="n">
-        <v>1632</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="674">
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="C674" t="n">
-        <v>1368</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="675">
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="C675" t="n">
-        <v>1412</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="676">
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="C676" t="n">
-        <v>1460</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="677">
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>520</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="678">
@@ -7814,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="C678" t="n">
-        <v>1408</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="679">
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="C679" t="n">
-        <v>2844</v>
+        <v>888</v>
       </c>
     </row>
     <row r="680">
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="C680" t="n">
-        <v>1676</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="681">
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="C681" t="n">
-        <v>1568</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="682">
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>956</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="683">
@@ -7869,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="C683" t="n">
-        <v>868</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="684">
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="C684" t="n">
-        <v>1284</v>
+        <v>972</v>
       </c>
     </row>
     <row r="685">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="C685" t="n">
-        <v>1684</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="686">
@@ -7902,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="C686" t="n">
-        <v>884</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="687">
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="C687" t="n">
-        <v>1104</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="688">
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="C688" t="n">
-        <v>1808</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="689">
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="C689" t="n">
-        <v>1072</v>
+        <v>868</v>
       </c>
     </row>
     <row r="690">
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="C690" t="n">
-        <v>1352</v>
+        <v>608</v>
       </c>
     </row>
     <row r="691">
@@ -7957,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="C691" t="n">
-        <v>1136</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="692">
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="C692" t="n">
-        <v>692</v>
+        <v>912</v>
       </c>
     </row>
     <row r="693">
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="C693" t="n">
-        <v>1276</v>
+        <v>752</v>
       </c>
     </row>
     <row r="694">
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="C694" t="n">
-        <v>1044</v>
+        <v>704</v>
       </c>
     </row>
     <row r="695">
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>2048</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="696">
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="C696" t="n">
-        <v>1656</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="697">
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>1440</v>
+        <v>836</v>
       </c>
     </row>
     <row r="698">
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="C698" t="n">
-        <v>1072</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="699">
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="C699" t="n">
-        <v>1356</v>
+        <v>752</v>
       </c>
     </row>
     <row r="700">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="C700" t="n">
-        <v>1400</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="701">
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="C701" t="n">
-        <v>244</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="702">
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="C702" t="n">
-        <v>1564</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="703">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>1216</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="704">
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="C704" t="n">
-        <v>864</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="705">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>784</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="706">
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>1364</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="707">
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="C707" t="n">
-        <v>716</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="708">
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="C708" t="n">
-        <v>684</v>
+        <v>904</v>
       </c>
     </row>
     <row r="709">
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="C709" t="n">
-        <v>1012</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="710">
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>712</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="711">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="C711" t="n">
-        <v>1116</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="712">
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="C712" t="n">
-        <v>1584</v>
+        <v>672</v>
       </c>
     </row>
     <row r="713">
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="C713" t="n">
-        <v>832</v>
+        <v>636</v>
       </c>
     </row>
     <row r="714">
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>696</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="715">
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="C715" t="n">
-        <v>1760</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="716">
@@ -8232,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>1224</v>
+        <v>920</v>
       </c>
     </row>
     <row r="717">
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="C717" t="n">
-        <v>772</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="718">
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="C718" t="n">
-        <v>1960</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="719">
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="C719" t="n">
-        <v>888</v>
+        <v>860</v>
       </c>
     </row>
     <row r="720">
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="C720" t="n">
-        <v>1648</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="721">
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="C721" t="n">
-        <v>1412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="722">
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="C722" t="n">
-        <v>1844</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="723">
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="C723" t="n">
-        <v>1360</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="724">
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="C724" t="n">
-        <v>776</v>
+        <v>372</v>
       </c>
     </row>
     <row r="725">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="C725" t="n">
-        <v>856</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="726">
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="C726" t="n">
-        <v>772</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="727">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="C727" t="n">
-        <v>860</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="728">
@@ -8364,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="C728" t="n">
-        <v>620</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="729">
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="C729" t="n">
-        <v>952</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="730">
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="C730" t="n">
-        <v>1416</v>
+        <v>804</v>
       </c>
     </row>
     <row r="731">
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="C731" t="n">
-        <v>888</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="732">
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="C732" t="n">
-        <v>2072</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="733">
@@ -8419,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="C733" t="n">
-        <v>1096</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="734">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="C734" t="n">
-        <v>1444</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="735">
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="C735" t="n">
-        <v>812</v>
+        <v>900</v>
       </c>
     </row>
     <row r="736">
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="C736" t="n">
-        <v>996</v>
+        <v>648</v>
       </c>
     </row>
     <row r="737">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="C737" t="n">
-        <v>1020</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="738">
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="C738" t="n">
-        <v>736</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="739">
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="C739" t="n">
-        <v>1400</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="740">
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="C740" t="n">
-        <v>1276</v>
+        <v>648</v>
       </c>
     </row>
     <row r="741">
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="C741" t="n">
-        <v>800</v>
+        <v>644</v>
       </c>
     </row>
     <row r="742">
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="C742" t="n">
-        <v>1572</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="743">
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="C743" t="n">
-        <v>1352</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="744">
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="C744" t="n">
-        <v>1480</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="745">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="C745" t="n">
-        <v>1088</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="746">
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="C746" t="n">
-        <v>1376</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="747">
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="C747" t="n">
-        <v>1216</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="748">
@@ -8584,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="C748" t="n">
-        <v>1596</v>
+        <v>896</v>
       </c>
     </row>
     <row r="749">
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="C749" t="n">
-        <v>768</v>
+        <v>780</v>
       </c>
     </row>
     <row r="750">
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="C750" t="n">
-        <v>1744</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="751">
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="C751" t="n">
-        <v>912</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="752">
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="C752" t="n">
-        <v>1492</v>
+        <v>356</v>
       </c>
     </row>
     <row r="753">
@@ -8639,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="C753" t="n">
-        <v>648</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="754">
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="C754" t="n">
-        <v>1304</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="755">
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="C755" t="n">
-        <v>1224</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="756">
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="C756" t="n">
-        <v>1476</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="757">
@@ -8683,7 +8683,7 @@
         <v>0</v>
       </c>
       <c r="C757" t="n">
-        <v>456</v>
+        <v>764</v>
       </c>
     </row>
     <row r="758">
@@ -8694,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="C758" t="n">
-        <v>2012</v>
+        <v>832</v>
       </c>
     </row>
     <row r="759">
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="C759" t="n">
-        <v>2020</v>
+        <v>720</v>
       </c>
     </row>
     <row r="760">
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="C760" t="n">
-        <v>1856</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="761">
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="C761" t="n">
-        <v>704</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="762">
@@ -8738,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="C762" t="n">
-        <v>1160</v>
+        <v>772</v>
       </c>
     </row>
     <row r="763">
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="C763" t="n">
-        <v>1556</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="764">
@@ -8760,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="C764" t="n">
-        <v>1740</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="765">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="C765" t="n">
-        <v>1320</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="766">
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="C766" t="n">
-        <v>1024</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="767">
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="C767" t="n">
-        <v>928</v>
+        <v>768</v>
       </c>
     </row>
     <row r="768">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="C768" t="n">
-        <v>848</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="769">
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="C769" t="n">
-        <v>840</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="770">
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="C770" t="n">
-        <v>2456</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="771">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="C771" t="n">
-        <v>420</v>
+        <v>840</v>
       </c>
     </row>
     <row r="772">
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="C772" t="n">
-        <v>692</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="773">
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="C773" t="n">
-        <v>760</v>
+        <v>596</v>
       </c>
     </row>
     <row r="774">
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="C774" t="n">
-        <v>1028</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="775">
@@ -8881,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="C775" t="n">
-        <v>920</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="776">
@@ -8892,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="C776" t="n">
-        <v>928</v>
+        <v>676</v>
       </c>
     </row>
     <row r="777">
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="C777" t="n">
-        <v>1468</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="778">
@@ -8914,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="C778" t="n">
-        <v>2236</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="779">
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="C779" t="n">
-        <v>1240</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="780">
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="C780" t="n">
-        <v>1164</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="781">
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="C781" t="n">
-        <v>1100</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="782">
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="C782" t="n">
-        <v>1540</v>
+        <v>612</v>
       </c>
     </row>
     <row r="783">
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="C783" t="n">
-        <v>2352</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="784">
@@ -8980,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="C784" t="n">
-        <v>1904</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="785">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="C785" t="n">
-        <v>600</v>
+        <v>268</v>
       </c>
     </row>
     <row r="786">
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="C786" t="n">
-        <v>1692</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="787">
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="C787" t="n">
-        <v>672</v>
+        <v>540</v>
       </c>
     </row>
     <row r="788">
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="C788" t="n">
-        <v>1640</v>
+        <v>984</v>
       </c>
     </row>
     <row r="789">
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="C789" t="n">
-        <v>1232</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="790">
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="C790" t="n">
-        <v>900</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="791">
@@ -9057,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="C791" t="n">
-        <v>1772</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="792">
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="C792" t="n">
-        <v>808</v>
+        <v>668</v>
       </c>
     </row>
     <row r="793">
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="C793" t="n">
-        <v>1420</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="794">
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="C794" t="n">
-        <v>1392</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="795">
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="C795" t="n">
-        <v>1164</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="796">
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="C796" t="n">
-        <v>984</v>
+        <v>744</v>
       </c>
     </row>
     <row r="797">
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="C797" t="n">
-        <v>1684</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="798">
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="C798" t="n">
-        <v>1892</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="799">
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="C799" t="n">
-        <v>572</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="800">
@@ -9156,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="C800" t="n">
-        <v>2124</v>
+        <v>920</v>
       </c>
     </row>
     <row r="801">
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="C801" t="n">
-        <v>1496</v>
+        <v>848</v>
       </c>
     </row>
     <row r="802">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="C802" t="n">
-        <v>812</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="803">
@@ -9189,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="C803" t="n">
-        <v>1328</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="804">
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="C804" t="n">
-        <v>572</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="805">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="C805" t="n">
-        <v>2548</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="806">
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="C806" t="n">
-        <v>1404</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="807">
@@ -9233,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="C807" t="n">
-        <v>1364</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="808">
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="C808" t="n">
-        <v>628</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="809">
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="C809" t="n">
-        <v>640</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="810">
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="C810" t="n">
-        <v>1584</v>
+        <v>888</v>
       </c>
     </row>
     <row r="811">
@@ -9277,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="C811" t="n">
-        <v>864</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="812">
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="C812" t="n">
-        <v>2560</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="813">
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="C813" t="n">
-        <v>880</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="814">
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="C814" t="n">
-        <v>1504</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="815">
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="C815" t="n">
-        <v>676</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="816">
@@ -9332,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="C816" t="n">
-        <v>1388</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="817">
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="C817" t="n">
-        <v>1064</v>
+        <v>612</v>
       </c>
     </row>
     <row r="818">
@@ -9354,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="C818" t="n">
-        <v>1052</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="819">
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="C819" t="n">
-        <v>2044</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="820">
@@ -9376,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="C820" t="n">
-        <v>1728</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="821">
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="C821" t="n">
-        <v>1456</v>
+        <v>772</v>
       </c>
     </row>
     <row r="822">
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="C822" t="n">
-        <v>1624</v>
+        <v>824</v>
       </c>
     </row>
     <row r="823">
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="C823" t="n">
-        <v>656</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="824">
@@ -9420,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="C824" t="n">
-        <v>2780</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="825">
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="C825" t="n">
-        <v>1644</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="826">
@@ -9442,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="C826" t="n">
-        <v>980</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="827">
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="C827" t="n">
-        <v>1020</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="828">
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="C828" t="n">
-        <v>460</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="829">
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="C829" t="n">
-        <v>2036</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="830">
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="C830" t="n">
-        <v>1004</v>
+        <v>984</v>
       </c>
     </row>
     <row r="831">
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="C831" t="n">
-        <v>900</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="832">
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="C832" t="n">
-        <v>1236</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="833">
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="C833" t="n">
-        <v>912</v>
+        <v>704</v>
       </c>
     </row>
     <row r="834">
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="C834" t="n">
-        <v>1648</v>
+        <v>596</v>
       </c>
     </row>
     <row r="835">
@@ -9541,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="C835" t="n">
-        <v>1428</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="836">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="C836" t="n">
-        <v>1448</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="837">
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="C837" t="n">
-        <v>784</v>
+        <v>916</v>
       </c>
     </row>
     <row r="838">
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="C838" t="n">
-        <v>1104</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="839">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="C839" t="n">
-        <v>1160</v>
+        <v>536</v>
       </c>
     </row>
     <row r="840">
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="C840" t="n">
-        <v>1408</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="841">
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="C841" t="n">
-        <v>1016</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="842">
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="C842" t="n">
-        <v>736</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="843">
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="C843" t="n">
-        <v>796</v>
+        <v>916</v>
       </c>
     </row>
     <row r="844">
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="C844" t="n">
-        <v>500</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="845">
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="C845" t="n">
-        <v>716</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="846">
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="C846" t="n">
-        <v>592</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="847">
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="C847" t="n">
-        <v>2780</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="848">
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="C848" t="n">
-        <v>792</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="849">
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="C849" t="n">
-        <v>1072</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="850">
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="C850" t="n">
-        <v>776</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="851">
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="C851" t="n">
-        <v>1084</v>
+        <v>872</v>
       </c>
     </row>
     <row r="852">
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="C852" t="n">
-        <v>1060</v>
+        <v>784</v>
       </c>
     </row>
     <row r="853">
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="C853" t="n">
-        <v>1444</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="854">
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="C854" t="n">
-        <v>992</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="855">
@@ -9761,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="C855" t="n">
-        <v>1312</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="856">
@@ -9772,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="C856" t="n">
-        <v>876</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="857">
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="C857" t="n">
-        <v>1656</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="858">
@@ -9794,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="C858" t="n">
-        <v>1296</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="859">
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="C859" t="n">
-        <v>1840</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="860">
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="C860" t="n">
-        <v>1112</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="861">
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="C861" t="n">
-        <v>1240</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="862">
@@ -9838,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="C862" t="n">
-        <v>1244</v>
+        <v>280</v>
       </c>
     </row>
     <row r="863">
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="C863" t="n">
-        <v>996</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="864">
@@ -9860,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="C864" t="n">
-        <v>2512</v>
+        <v>616</v>
       </c>
     </row>
     <row r="865">
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="C865" t="n">
-        <v>1936</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="866">
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="C866" t="n">
-        <v>1516</v>
+        <v>696</v>
       </c>
     </row>
     <row r="867">
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="C867" t="n">
-        <v>816</v>
+        <v>960</v>
       </c>
     </row>
     <row r="868">
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="C868" t="n">
-        <v>1000</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="869">
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="C869" t="n">
-        <v>956</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="870">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="C870" t="n">
-        <v>1732</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="871">
@@ -9937,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="C871" t="n">
-        <v>1004</v>
+        <v>528</v>
       </c>
     </row>
     <row r="872">
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="C872" t="n">
-        <v>1068</v>
+        <v>852</v>
       </c>
     </row>
     <row r="873">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="C873" t="n">
-        <v>1940</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="874">
@@ -9970,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="C874" t="n">
-        <v>692</v>
+        <v>800</v>
       </c>
     </row>
     <row r="875">
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="C875" t="n">
-        <v>992</v>
+        <v>876</v>
       </c>
     </row>
     <row r="876">
@@ -9992,7 +9992,7 @@
         <v>0</v>
       </c>
       <c r="C876" t="n">
-        <v>1380</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="877">
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="C877" t="n">
-        <v>876</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="878">
@@ -10014,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="C878" t="n">
-        <v>1128</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="879">
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="C879" t="n">
-        <v>1624</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="880">
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="C880" t="n">
-        <v>1904</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="881">
@@ -10047,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="C881" t="n">
-        <v>1336</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="882">
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="C882" t="n">
-        <v>1556</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="883">
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="C883" t="n">
-        <v>976</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="884">
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="C884" t="n">
-        <v>1288</v>
+        <v>872</v>
       </c>
     </row>
     <row r="885">
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="C885" t="n">
-        <v>1644</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="886">
@@ -10102,7 +10102,7 @@
         <v>0</v>
       </c>
       <c r="C886" t="n">
-        <v>1008</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="887">
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="C887" t="n">
-        <v>1620</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="888">
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="C888" t="n">
-        <v>1568</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="889">
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="C889" t="n">
-        <v>1272</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="890">
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="C890" t="n">
-        <v>1032</v>
+        <v>984</v>
       </c>
     </row>
     <row r="891">
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="C891" t="n">
-        <v>1596</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="892">
@@ -10168,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="C892" t="n">
-        <v>720</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="893">
@@ -10179,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="C893" t="n">
-        <v>1208</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="894">
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="C894" t="n">
-        <v>876</v>
+        <v>940</v>
       </c>
     </row>
     <row r="895">
@@ -10201,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="C895" t="n">
-        <v>1004</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="896">
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="C896" t="n">
-        <v>1184</v>
+        <v>564</v>
       </c>
     </row>
     <row r="897">
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="C897" t="n">
-        <v>1740</v>
+        <v>524</v>
       </c>
     </row>
     <row r="898">
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="C898" t="n">
-        <v>1804</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="899">
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="C899" t="n">
-        <v>1536</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="900">
@@ -10256,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="C900" t="n">
-        <v>1488</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="901">
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="C901" t="n">
-        <v>1248</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="902">
@@ -10278,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="C902" t="n">
-        <v>3100</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="903">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="C903" t="n">
-        <v>1792</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="904">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="C904" t="n">
-        <v>1776</v>
+        <v>784</v>
       </c>
     </row>
     <row r="905">
@@ -10311,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="C905" t="n">
-        <v>1896</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="906">
@@ -10322,7 +10322,7 @@
         <v>0</v>
       </c>
       <c r="C906" t="n">
-        <v>408</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="907">
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="C907" t="n">
-        <v>1384</v>
+        <v>896</v>
       </c>
     </row>
     <row r="908">
@@ -10344,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="C908" t="n">
-        <v>1276</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="909">
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="C909" t="n">
-        <v>1948</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="910">
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="C910" t="n">
-        <v>1400</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="911">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="C911" t="n">
-        <v>1916</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="912">
@@ -10388,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="C912" t="n">
-        <v>1036</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="913">
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="C913" t="n">
-        <v>684</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="914">
@@ -10410,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="C914" t="n">
-        <v>1448</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="915">
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="C915" t="n">
-        <v>1104</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="916">
@@ -10432,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="C916" t="n">
-        <v>1612</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="917">
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="C917" t="n">
-        <v>1032</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="918">
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="C918" t="n">
-        <v>772</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="919">
@@ -10465,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="C919" t="n">
-        <v>1496</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="920">
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="C920" t="n">
-        <v>2396</v>
+        <v>560</v>
       </c>
     </row>
     <row r="921">
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="C921" t="n">
-        <v>624</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="922">
@@ -10498,7 +10498,7 @@
         <v>0</v>
       </c>
       <c r="C922" t="n">
-        <v>1944</v>
+        <v>968</v>
       </c>
     </row>
     <row r="923">
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="C923" t="n">
-        <v>2128</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="924">
@@ -10520,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="C924" t="n">
-        <v>1716</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="925">
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="C925" t="n">
-        <v>1460</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="926">
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="C926" t="n">
-        <v>1212</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="927">
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="C927" t="n">
-        <v>1328</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="928">
@@ -10564,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="C928" t="n">
-        <v>592</v>
+        <v>628</v>
       </c>
     </row>
     <row r="929">
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="C929" t="n">
-        <v>1076</v>
+        <v>648</v>
       </c>
     </row>
     <row r="930">
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="C930" t="n">
-        <v>1136</v>
+        <v>900</v>
       </c>
     </row>
     <row r="931">
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="C931" t="n">
-        <v>1148</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="932">
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="C932" t="n">
-        <v>728</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="933">
@@ -10619,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="C933" t="n">
-        <v>1656</v>
+        <v>416</v>
       </c>
     </row>
     <row r="934">
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="C934" t="n">
-        <v>1100</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="935">
@@ -10641,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="C935" t="n">
-        <v>1628</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="936">
@@ -10652,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="C936" t="n">
-        <v>892</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="937">
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="C937" t="n">
-        <v>1652</v>
+        <v>720</v>
       </c>
     </row>
     <row r="938">
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="C938" t="n">
-        <v>956</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="939">
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="C939" t="n">
-        <v>420</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="940">
@@ -10696,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="C940" t="n">
-        <v>1724</v>
+        <v>976</v>
       </c>
     </row>
     <row r="941">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="C941" t="n">
-        <v>1020</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="942">
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="C942" t="n">
-        <v>1152</v>
+        <v>980</v>
       </c>
     </row>
     <row r="943">
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="C943" t="n">
-        <v>904</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="944">
@@ -10740,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="C944" t="n">
-        <v>952</v>
+        <v>996</v>
       </c>
     </row>
     <row r="945">
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="C945" t="n">
-        <v>1668</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="946">
@@ -10762,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="C946" t="n">
-        <v>2016</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="947">
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="C947" t="n">
-        <v>780</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="948">
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="C948" t="n">
-        <v>2252</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="949">
@@ -10795,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="C949" t="n">
-        <v>1024</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="950">
@@ -10806,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="C950" t="n">
-        <v>1100</v>
+        <v>808</v>
       </c>
     </row>
     <row r="951">
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="C952" t="n">
-        <v>1200</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="953">
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="C953" t="n">
-        <v>2748</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="954">
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="C954" t="n">
-        <v>880</v>
+        <v>940</v>
       </c>
     </row>
     <row r="955">
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="C955" t="n">
-        <v>2224</v>
+        <v>596</v>
       </c>
     </row>
     <row r="956">
@@ -10872,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="C956" t="n">
-        <v>1600</v>
+        <v>836</v>
       </c>
     </row>
     <row r="957">
@@ -10883,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="C957" t="n">
-        <v>700</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="958">
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="C958" t="n">
-        <v>1816</v>
+        <v>904</v>
       </c>
     </row>
     <row r="959">
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="C959" t="n">
-        <v>992</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="960">
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="C960" t="n">
-        <v>636</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="961">
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="C961" t="n">
-        <v>2260</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="962">
@@ -10938,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="C962" t="n">
-        <v>556</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="963">
@@ -10949,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="C963" t="n">
-        <v>1396</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="964">
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="C964" t="n">
-        <v>1844</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="965">
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="C965" t="n">
-        <v>952</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="966">
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="C966" t="n">
-        <v>1012</v>
+        <v>904</v>
       </c>
     </row>
     <row r="967">
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="C967" t="n">
-        <v>1512</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="968">
@@ -11004,7 +11004,7 @@
         <v>0</v>
       </c>
       <c r="C968" t="n">
-        <v>684</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="969">
@@ -11015,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="C969" t="n">
-        <v>1500</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="970">
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="C970" t="n">
-        <v>1564</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="971">
@@ -11037,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="C971" t="n">
-        <v>1620</v>
+        <v>672</v>
       </c>
     </row>
     <row r="972">
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="C972" t="n">
-        <v>628</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="973">
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="C973" t="n">
-        <v>1484</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="974">
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="C974" t="n">
-        <v>1548</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="975">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="C975" t="n">
-        <v>728</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="976">
@@ -11092,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="C976" t="n">
-        <v>916</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="977">
@@ -11103,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="C977" t="n">
-        <v>1224</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="978">
@@ -11114,7 +11114,7 @@
         <v>0</v>
       </c>
       <c r="C978" t="n">
-        <v>1272</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="979">
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="C979" t="n">
-        <v>576</v>
+        <v>960</v>
       </c>
     </row>
     <row r="980">
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="C980" t="n">
-        <v>1564</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="981">
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="C981" t="n">
-        <v>1152</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="982">
@@ -11158,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="C982" t="n">
-        <v>1348</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="983">
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="C983" t="n">
-        <v>756</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="984">
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="C984" t="n">
-        <v>1368</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="985">
@@ -11191,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="C985" t="n">
-        <v>1536</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="986">
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="C986" t="n">
-        <v>1008</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="987">
@@ -11213,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="C987" t="n">
-        <v>1356</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="988">
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="C988" t="n">
-        <v>496</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="989">
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="C989" t="n">
-        <v>1916</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="990">
@@ -11246,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="C990" t="n">
-        <v>756</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="991">
@@ -11257,7 +11257,7 @@
         <v>0</v>
       </c>
       <c r="C991" t="n">
-        <v>1308</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="992">
@@ -11268,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="C992" t="n">
-        <v>1136</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="993">
@@ -11279,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="C993" t="n">
-        <v>1436</v>
+        <v>876</v>
       </c>
     </row>
     <row r="994">
@@ -11290,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="C994" t="n">
-        <v>1708</v>
+        <v>616</v>
       </c>
     </row>
     <row r="995">
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="C995" t="n">
-        <v>1332</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="996">
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="C996" t="n">
-        <v>2252</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="997">
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="C997" t="n">
-        <v>1388</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="998">
@@ -11334,7 +11334,7 @@
         <v>0</v>
       </c>
       <c r="C998" t="n">
-        <v>1960</v>
+        <v>308</v>
       </c>
     </row>
     <row r="999">
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="C999" t="n">
-        <v>2512</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1000">
@@ -11356,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="C1000" t="n">
-        <v>1696</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1001">
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="C1001" t="n">
-        <v>792</v>
+        <v>1724</v>
       </c>
     </row>
   </sheetData>
